--- a/excel2json-master/QuestScript_Data.xlsx
+++ b/excel2json-master/QuestScript_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBCF4F6-0746-413C-A7AD-FF7D22BF827A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65C29E3-9A16-4C76-B5E0-8B54264AAE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,11 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아 참! 내 소개를 하는 걸 깜빡했네~
-나는 하이하이라고 해. 너는 이름이 뭐야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">	어머~~ 우리 마을에 손님은 정말 오랜만이야!! 잘 잤니?		</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,16 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우리 마을은 길 잃은 나그네를 그냥 보내는 박한 마을이 아니야! 
-어서 들어와~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아.. 안녕하세요. 불빛이 보여서왔어요.. 
-길을 잃었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,11 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일단 배가 너무 고파..
-이 주변에 먹을 만한 것이 있을까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(꼬르륵..)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,6 +349,22 @@
   </si>
   <si>
     <t>DialogueID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 배가 너무 고파.. 이 주변에 먹을 만한 것이 있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아.. 안녕하세요. 불빛이 보여서왔어요.. 길을 잃었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 마을은 길 잃은 나그네를 그냥 보내는 박한 마을이 아니야! 어서 들어와~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 참! 내 소개를 하는 걸 깜빡했네~ 나는 하이하이라고 해. 너는 이름이 뭐야?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,232 +762,232 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="98" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>100101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>100102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>100103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>100104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>100201</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>100202</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>100203</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>100301</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>100302</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>100401</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>100402</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>100403</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>100404</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>100501</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>100502</v>
       </c>
@@ -1002,10 +998,10 @@
         <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>100503</v>
       </c>
@@ -1019,7 +1015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>100504</v>
       </c>
@@ -1033,7 +1029,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>100505</v>
       </c>
@@ -1047,7 +1043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>100506</v>
       </c>
@@ -1061,7 +1057,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>100601</v>
       </c>
@@ -1075,7 +1071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>100602</v>
       </c>
@@ -1089,7 +1085,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>100603</v>
       </c>
@@ -1103,7 +1099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>100604</v>
       </c>
@@ -1117,7 +1113,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>100605</v>
       </c>
@@ -1131,7 +1127,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>100606</v>
       </c>
@@ -1145,7 +1141,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>100607</v>
       </c>
@@ -1159,7 +1155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>100701</v>
       </c>
@@ -1173,7 +1169,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>100702</v>
       </c>
@@ -1187,7 +1183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>100703</v>
       </c>
@@ -1201,7 +1197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>100704</v>
       </c>
@@ -1215,7 +1211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>100705</v>
       </c>
@@ -1229,7 +1225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>100706</v>
       </c>
@@ -1243,7 +1239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>100801</v>
       </c>
@@ -1257,7 +1253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>100802</v>
       </c>
@@ -1271,7 +1267,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>100803</v>
       </c>
@@ -1285,7 +1281,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>100804</v>
       </c>
@@ -1299,7 +1295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>100805</v>
       </c>
@@ -1313,7 +1309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>100806</v>
       </c>
@@ -1327,7 +1323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>100901</v>
       </c>
@@ -1341,7 +1337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>100902</v>
       </c>
@@ -1355,7 +1351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>100903</v>
       </c>
@@ -1369,7 +1365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43">
         <v>100904</v>
       </c>
@@ -1383,7 +1379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44">
         <v>100905</v>
       </c>
@@ -1397,7 +1393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45">
         <v>100906</v>
       </c>
@@ -1411,7 +1407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46">
         <v>100907</v>
       </c>
@@ -1425,7 +1421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>100908</v>
       </c>
@@ -1439,7 +1435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>100909</v>
       </c>
@@ -1453,7 +1449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49">
         <v>100910</v>
       </c>
@@ -1467,7 +1463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50">
         <v>100911</v>
       </c>
@@ -1481,7 +1477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B51">
         <v>100912</v>
       </c>
@@ -1495,7 +1491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52">
         <v>101001</v>
       </c>
@@ -1509,7 +1505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53">
         <v>101002</v>
       </c>
@@ -1523,7 +1519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>101003</v>
       </c>
@@ -1537,7 +1533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>101004</v>
       </c>
@@ -1551,7 +1547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56">
         <v>101005</v>
       </c>
@@ -1565,7 +1561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B57">
         <v>101006</v>
       </c>
@@ -1579,7 +1575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B58">
         <v>101007</v>
       </c>
@@ -1593,7 +1589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B59">
         <v>101008</v>
       </c>
@@ -1607,7 +1603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>101009</v>
       </c>
@@ -1621,7 +1617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>101010</v>
       </c>
@@ -1635,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E63" s="3"/>
     </row>
   </sheetData>

--- a/excel2json-master/QuestScript_Data.xlsx
+++ b/excel2json-master/QuestScript_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65C29E3-9A16-4C76-B5E0-8B54264AAE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DA5518-47BD-4CA1-86AC-DA8704527E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
+    <workbookView xWindow="14295" yWindow="300" windowWidth="14580" windowHeight="14685" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="153">
   <si>
     <t>촌장님한테 돌아가야겠어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buggubuggu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아 맞다! 게로게로는 저기 있지!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,6 +361,291 @@
   </si>
   <si>
     <t>아 참! 내 소개를 하는 걸 깜빡했네~ 나는 하이하이라고 해. 너는 이름이 뭐야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민들과 인사는 했는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 이런 모습인 것이 의아할 걸세.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네. 그렇습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉 표정관리가 안 됐나요..? 사실.. 네 의아합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 괜찮다면 이 늙은이의 이야기를 들어줄 수 있겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네. 말씀하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리도 자세한 이유는 모르겠지만 얼마 전부터 이렇게 됐네..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 그 이유를 마을 밖 동물들이 난폭해진 것과 연관이 있다고 생각하네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 첫 만남에 무리한 부탁인데.. 띠리띠리와 상황을 보고 와줄 수 있겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리는 마을 입구에서 마을을 지키고 있을 걸세. 한 번 가보게나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BugguBuggu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아.. 안녕. 네가 어젯밤에 온 사람이었지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 그건 관심 없고, 혼자서도 갔다 올 수 있지만 촌장님의 지시니까..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 가보자. 따라와.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(뭐야 저 무관심한 말투는..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiriDiri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기 저 동물이 보여?</t>
+  </si>
+  <si>
+    <t>응?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 동물들이 포악해져서 쉽게 다가갈수가 없어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아 보이는데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(스컹크가 갑자기 공격을 해온다) 앗! 아파! 왜 이러는 거야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너! 보고만 있지 말고 어떻게 좀 해봐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시나 스컹크가 공격을...? 촌장님에게 돌아가야겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌장님! 마을 밖에 동물들이..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자네 돌아왔구먼! 지금 큰일이 생겼네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 일이죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부꾸부꾸가 마을 안에서 보이지 않아! 마을 밖으론 절대 나가지 않는 아이인데..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">젊은이! 부탁을 계속해서 미안하네만 부꾸부꾸를 좀 찾아주지 않겠나? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순찰을 보내기 전에 부꾸부꾸의 애착 단지가 없어졌단 소리를 했던 것 같네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜬금없이 카멜레온 이야기도 했던 것 같고..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗 저쪽에서 부꾸부꾸의 소리가 들리는 것 같아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부꾸부꾸!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카멜레온이 너무 무서워!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부꾸부꾸! 왜 여기 있는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부꾸부꾸는 몰라.. 카멜레온이 무서워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부꾸부꾸는 아무것도 몰라..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 마을로 데려가야겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌장님! 부꾸부꾸를 찾아왔어요. 산속 근처인데 왜 그곳에 있었는지는..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오.. 우리 부꾸부꾸를 찾아주어서 정말 고맙네 젊은이.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저..촌장님. 마을과 마을밖의 분위기가 심상치 않은데..
+이유를 더 말씀해주실 수 있을까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 강해질 수 있게 만들어 줄 사람이 있네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강가에 사는 뚜쉬뚜쉬를 찾아가보도록 하게나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 찾아갈 때 이것을 갖고 가게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">뚜쉬뚜쉬...? 특이한 이름을 가졌네.
+그나저나 뚜쉬뚜쉬님은 대체 어디에 계시는거야?? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜쉬뚜쉬님에게 배운다면 설마 나도 빠샤빠샤? 멋진데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...뚜쉬뚜쉬님?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 뭐야? 이몸을 어떻게 알지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 마을 촌장님이 뚜쉬뚜쉬님을 찾아가보라고 하셨습니다.
+더 강해지고 싶어 뚜쉬뚜쉬님을 찾아 왔습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강해져? 풉.. 안돼 돌아가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있잖아. 강해지는 건 쉬운 게 아니야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애. 송. 이.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 갈테니 알아서 가도록.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">뚜쉬뚜쉬.. 아니 스승님! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞으로 스승님이라고 부르겠습니다. 부탁드립니다!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을을 지키기 위해 제가 강해져야 합니다!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 마을이 요즘 이상합니다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.....</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을이 위험하다니 내 이번만은 들어주지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋ..크흠. 스승이라고 해서 들어주는 건 절대 아니야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가서 카멜레온이랑 놀아봐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DushiDushi</t>
+  </si>
+  <si>
+    <t>DushiDushi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜쉬뚜쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야레야레.. 느려.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>....</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대답.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기하겠다는건가? 잘가고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아..아닙니다!! 잠시 숨 좀 돌리느라..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래? 그럼 다음으로 미어캣을 잡아와.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네..?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,307 +1040,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38187CEB-C85B-4882-A8E4-E722601192A3}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="98" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>100101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>100102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>100103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>100104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>100201</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>100202</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>100301</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>100401</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>100402</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>100501</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>100502</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>100503</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8">
-        <v>100203</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9">
-        <v>100301</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10">
-        <v>100302</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <v>100401</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E13" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>100504</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12">
-        <v>100402</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13">
-        <v>100403</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14">
-        <v>100404</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>100601</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>100602</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B15">
-        <v>100501</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B16">
-        <v>100502</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>100603</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>100604</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>100605</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>100606</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17">
-        <v>100503</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18">
-        <v>100504</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19">
-        <v>100505</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20">
-        <v>100506</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>100601</v>
+        <v>100701</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2</v>
@@ -1068,12 +1349,12 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22">
-        <v>100602</v>
+        <v>100702</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2</v>
@@ -1082,82 +1363,82 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>100603</v>
+        <v>100703</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>100704</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>100705</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>100706</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="2" t="s">
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>100707</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24">
-        <v>100604</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25">
-        <v>100605</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26">
-        <v>100606</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27">
-        <v>100607</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>100701</v>
+        <v>100801</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
@@ -1166,68 +1447,68 @@
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>100702</v>
+        <v>100802</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>100803</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>100804</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="2" t="s">
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>100805</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30">
-        <v>100703</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31">
-        <v>100704</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32">
-        <v>100705</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>100706</v>
+        <v>100806</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2</v>
@@ -1236,12 +1517,12 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>100801</v>
+        <v>100901</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2</v>
@@ -1250,236 +1531,236 @@
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>100802</v>
+        <v>100902</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>100903</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>100904</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>100905</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>100906</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>101001</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>101002</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>101003</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>101004</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>101005</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>101006</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>101007</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>101008</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>101009</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>101010</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="2" t="s">
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>101011</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36">
-        <v>100803</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37">
-        <v>100804</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38">
-        <v>100805</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39">
-        <v>100806</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40">
-        <v>100901</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41">
-        <v>100902</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42">
-        <v>100903</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43">
-        <v>100904</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44">
-        <v>100905</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45">
-        <v>100906</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46">
-        <v>100907</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47">
-        <v>100908</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48">
-        <v>100909</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49">
-        <v>100910</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B50">
-        <v>100911</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>100912</v>
+        <v>101012</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
@@ -1488,12 +1769,12 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>101001</v>
+        <v>101101</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
@@ -1502,26 +1783,26 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>101002</v>
+        <v>101102</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54">
-        <v>101003</v>
+        <v>101103</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2</v>
@@ -1530,26 +1811,26 @@
         <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55">
-        <v>101004</v>
+        <v>101104</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56">
-        <v>101005</v>
+        <v>101105</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2</v>
@@ -1558,29 +1839,29 @@
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57">
-        <v>101006</v>
+        <v>101106</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58">
-        <v>101007</v>
+        <v>101107</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
@@ -1589,9 +1870,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59">
-        <v>101008</v>
+        <v>101108</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2</v>
@@ -1603,9 +1884,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60">
-        <v>101009</v>
+        <v>101109</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
@@ -1617,9 +1898,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61">
-        <v>101010</v>
+        <v>101110</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2</v>
@@ -1631,8 +1912,929 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E63" s="3"/>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>101201</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>101202</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>101203</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>101204</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>101205</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>101206</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>101207</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>101208</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>101209</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>101210</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>101301</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>101302</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>101303</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>101304</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>101501</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>101502</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>101503</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>101504</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>101505</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>101506</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>101601</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>101701</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>101702</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>101703</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>101704</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>101705</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>101706</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>101707</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>101801</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>101802</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>101803</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>101901</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>101902</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>101903</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>101904</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>102101</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>102102</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>102103</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>102104</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>102105</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>102106</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>102107</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>102108</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>102201</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>102202</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>102203</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>102204</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>102205</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>102206</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>102207</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>102208</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>102209</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>102210</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>102211</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>102212</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>102213</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>102214</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>102215</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>102301</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>102302</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>102303</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>102304</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>102305</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>102306</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>102307</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>102308</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel2json-master/QuestScript_Data.xlsx
+++ b/excel2json-master/QuestScript_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DA5518-47BD-4CA1-86AC-DA8704527E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69643BDB-F468-4779-9C64-8D92235BD04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="300" windowWidth="14580" windowHeight="14685" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
+    <workbookView xWindow="14010" yWindow="450" windowWidth="15225" windowHeight="14685" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="212">
   <si>
     <t>촌장님한테 돌아가야겠어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,6 +646,241 @@
   </si>
   <si>
     <t>네..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승님 다 잡아왔습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래. 잘 했군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금까진 너의 실력을 테스트 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이번엔 난이도를 올려보지. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 중에서도 황소를 잡을 수 있다면 어느정도 강해졌다고 볼 수 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 너에게 황소는 무리겠지만 늑대 정도는 잡을 수 있겠지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대라면.. 위험한 몬스터로 알고 있는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야? 이 몸처럼 강해지고 싶은게 아닌가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대를 잡아온다면 뚜쉬뚜쉬만의 기술을 알려 주겠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아..알겠습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승님..! 저 왔습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오호. 이제 좀 내 제자 같군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 최종 수련이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자, 내가 알려준 기술은 잘 기억하고 있지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넵!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래. 황소가 많으면 말이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 집이 망가진다고.. 반드시 잡도록.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아.. 집이...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래. 불만 있나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아닙니다! 집을 부수는 황소는 제가 모조리 잡겠습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 내 제자여. 다녀오도록.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승님! 다음은 뭐죠!? 확실히 강해진 것 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훗..마을로 가보도록.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금. 내 귀에 마을의 절규가 들린다. 넌 아무것도 안들리는가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭풍이..오려하는군..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...네 (촌장님께 가봐야겠어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자네! 어찌 이 타이밍에 돌아왔는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리마을의 귀염둥이 게로게로가 사라졌다네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리서리를 놀리다가 혼이 났는데 그 후로 보이지가 않는다네..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리서리에게 가보겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승님이 가보라고 해서.. 그건 그렇고 마을이 왜 이렇게 어수선하죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리서리! 이게 무슨일이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로가 내 버섯을 훔쳐먹어서.. (훌쩍)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 평소처럼 화를 조금 냈어 (훌쩍)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로는 원래 화를 내도 변함없이 날 놀리고 다녔는데 (훌쩍)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주 잠깐 눈을 돌린 사이에 사라져 버렸어 (훌쩍)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을안을 모조리 찾아봤는데 보이지가 않아..제발 게로게로를 찾아줘 (엉엉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(정말 마을안에는 게로게로가 없잖아?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(마을 밖으로 나간게 분명해!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(마을 안에서 게로게로의 주머니는 발견했지만…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로!!!!!어딨어!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대가 너무 무서워.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 게로게로의 목소리가 들린 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 방향이.. 부꾸부꾸가 사라졌었던 곳이잖아!?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로! 왜 여기 있는거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나..나는 서리서리를 놀리려고 했는데 으아앙~~몰라</t>
+  </si>
+  <si>
+    <t>(어서 마을로 데려가야겠어. 촌장님께 이상한 점을 말해야해)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 장소는..부꾸부꾸를 발견했던 장소야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게로게로!! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로를 찾아줘서 정말 고마워!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌장님! 게로게로를 찾았는데 이상한 점이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부꾸부꾸와 같은 장소에서 발견이 되었어요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 게로게로도 왜 거기 있는지는 모른다고 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 이런 해괴한일이 있나...아무튼 게로게로까지 찾아주다니, 고맙네 젊은이!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아닙니다. (이 마을에서 이상한 일이 벌어지고 있는 것이 분명해)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌장님! 용사님! 띠리띠리가 이상해요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 또 무슨일인가..!? 어서 가보세!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1040,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38187CEB-C85B-4882-A8E4-E722601192A3}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="B166" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2836,6 +3071,835 @@
         <v>152</v>
       </c>
     </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>102401</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>102402</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>102403</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>102404</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>102405</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>102406</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>102407</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>102408</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>102409</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>102410</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>102501</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>102502</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>102503</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>102504</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>102505</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>102506</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>102507</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>102508</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>102509</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>102510</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>102511</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>102701</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>102702</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>102703</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>102704</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>102705</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>102706</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>102801</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>102802</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>102803</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>102804</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>102805</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>102901</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>102902</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>102903</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>102904</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>102905</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>102906</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>103001</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>103002</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>103003</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>103201</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>103202</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>103203</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>103204</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>103205</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>103301</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>103302</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>103303</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>103304</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>103501</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>103502</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>103601</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>103602</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>103603</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>103604</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>103605</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>103701</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>103702</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E189" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel2json-master/QuestScript_Data.xlsx
+++ b/excel2json-master/QuestScript_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69643BDB-F468-4779-9C64-8D92235BD04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B5F7CE-8919-44D4-94AB-61D4399173A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14010" yWindow="450" windowWidth="15225" windowHeight="14685" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
+    <workbookView xWindow="13425" yWindow="465" windowWidth="17820" windowHeight="14685" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="298">
   <si>
     <t>촌장님한테 돌아가야겠어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,6 +881,350 @@
   </si>
   <si>
     <t>이건 또 무슨일인가..!? 어서 가보세!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크크큭 고기!! 고기를 가져와!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나님에게 고기를 바쳐라. 어리석은 것들아! 내 흑염룡을 맛보고 싶은것이냐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리!? 왜 그러는거야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜라니 나에게 감히 왜라는 단어를 쓴거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크으으으..내안에서 또다른 내가 살아난다!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비켜.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승님?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크하핫 나에게 도전장을 내미는 놈은 살아돌아가지 못할 ㄱ..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오랜만에 용의 힘을 개방했더니 좀 피곤하군. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 된 일이죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녀석을 잠재웠다. 내 할일은 끝났으니 뒷일을 책임지도록.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(스승님이 뭔가를 알고 계신걸까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승님! 아까의 일에 대해 여쭤보러 왔습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 그저 기의 흐름을 읽어 응답했을 뿐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을에 답이 있다. 그 이상 내가 해줄 수 있는 말은 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(마을..?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저..촌장님! 마을내에서 일어나는 사건들에 대해 아시는 것이 없습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허허이 생각을 해보겠네. 음료수라도 마시면서 대화를 나누지 않겠는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금 춥기도 하니 땔감도 좀 구해다 주게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 우리가 왜 이런 모습인지, 최근에 나타나는 기이한 일이 무엇인지는 모른다네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일주일 전 쯤인가..밤에 불빛이 번쩍 거린 적은 있었지만 아마도 번개였을테지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(불빛..?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩌면 자네가 우리 마을을 구원해줄 이가 아닌가 혼자 생각해본다네 껄껄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염치없지만.. 도와주게나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 여관으로 돌아가는 길이면 이것을 좀 전해주겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어머~~이제 오니? 얼른 씻고 푹 쉬려무나! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요! 촌장님이 이걸 전해드리라고 하셔서요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 여관의 맥주컵! 깜박하고 있었구나~깔깔깔~~! 정말 고마워!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 참 기이한 하루이지 않았니? 어쩜 그런일들이 일어났을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항상 조심해요! 알았죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(말이 너무 많다..) 네~! 그나저나 혹시 최근들어 이상한걸 보셨다거나..뭐 그런 적ㅇ..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글세 말하다 보면 있었을지도? 그나저나 배 안고프니? 특별히 맛있는 것을 해줄게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비하는 동안 생선을 몇마리 구해다 줄래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 맛있게 먹자구~~ 특별소스를 넣어 조리했어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘먹겠습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오늘은 정말 다이나믹한 하루였어~~그렇지 않니? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두들 무사해서 정말정말 다행이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 내가 맥주한잔씩 돌린거란다~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라? 근데 왜 이 맥주컵은 검정색으로 물들었지? 산지 얼마 안된건데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량품이 섞여있었다니!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>....?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 마을에도 불량품이.. 아..아니! 많이 피곤할텐데 이만 들어가봐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….? 네. 알겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신세 많이 졌습니다. 몸이 개운해 진 것 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리가 깨어난 것 같던데 한 번 들러서 확인해보도록 해~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아참! 갈 때 당근을 띠리띠리에게 전달해 줄래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리..? 몸은 좀 어때? 괜찮아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어..안녕. 하이하이의 음식 덕분인가, 몸은 괜찮은데 아무것도 기억이 나지 않네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 혹시 마지막 기억은 뭐였는지 물어봐도 돼?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 그냥 하이하이한테 가는 길이었는데..으음....</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용을 별로 좋아하진 않는데 갑자기 머릿속에 용이 날아다녔어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 그냥 뜬금없이 잡생각을 했었나봐. 그러고는 눈뜨니 집이었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(용..?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젊은이 여기있었나? 또 일이 일어났네. 이번엔 하이하이가 사라졌어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐!!!?? 안돼!! 하이하이!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침까지만 해도 여관에 계셨는데요..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 찾아볼게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼭 찾아줘!! 하이하이가 없으면 안돼!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이하이!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머어머 여긴 어디야..? 무서워..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이 장소에 확실히 뭔가 있어! 일단 하이하이를 마을로 데려가자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이번에도 사라진 우리 주민을 찾아주어 고맙네! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아닙니다! 촌장님. 연달아 이런 일이 일어나서..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니! 하이하이가 왜이러고 있어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로도 그렇고 왜이렇게 다들 정신이 나간거야! 어휴!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(항상 화가 나있네..) 아 음! 하이하이처럼 마을에 이상한 일이 벌어지고 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 기억에 남거나 특이한 어떤 것이 없었어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐음~? 그런 건 딱히 없었는데 신기한 건 본적이 있어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언덕쪽에서 보랏빛의 오로라가 반짝이는 걸 보았어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 100년만에 나타났던 자연현상 같은거였을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(보랏빛의 오로라..?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후후..왠지 웃음이 나지 않나? 보랏빛의 자연현상이라니..쿡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리서리...?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 이름을 함부로 부르지마라..애.송.이.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내이름은 함부로 부른 자 중에 살아남은 자는 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별히 나의 흑염의 파멸검으로 너의 마지막을 장식해주마.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하앗!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(거친 숨을 쉬며) 하아하아 서리서리..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응? 이게 뭐지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(띠리띠리가 이상해졌을 때와 너무도 흡사해!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(지금까지의 의문점과 단서들을 추리해봤을때...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(번쩍거렸던 불빛, 검정색으로 물든 맥주잔, 머릿속에 갑자기 떠오른 용, 보랏빛의 오로라)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(얼른 촌장님을 만나뵈어야겠어!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그리고 실종되었던 사람들이 발견된 같은장소)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1275,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38187CEB-C85B-4882-A8E4-E722601192A3}">
-  <dimension ref="A1:E189"/>
+  <dimension ref="A1:E272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B166" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1287,7 +1631,7 @@
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="98" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3897,8 +4241,1209 @@
         <v>211</v>
       </c>
     </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>103801</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>103802</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E189" s="3"/>
+      <c r="B189">
+        <v>103803</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>103804</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>103805</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>103806</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>103807</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>103808</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>103809</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>103810</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>103811</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>103812</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>103901</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>103902</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>103903</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>103904</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>104001</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>104002</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>104003</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>104201</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>104202</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>104203</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>104204</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>104205</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>104206</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>104301</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>104302</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>104303</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>104304</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>104305</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>104306</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>104307</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>104308</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>104501</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>104502</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>104503</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>104504</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>104505</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>104506</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>104507</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>104508</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>104509</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>104510</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>104601</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>104602</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>104603</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>104701</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>104702</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>104703</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>104704</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>104705</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>104706</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>104707</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>104801</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>104802</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>104803</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>104804</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>104805</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>104901</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>104902</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>104903</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>105001</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>105002</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>105003</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>105004</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>105101</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>105102</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>105103</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>105104</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>105105</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>105106</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>105107</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>105108</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>105109</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>105201</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>105202</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>105203</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>105204</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>105205</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>105301</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>105302</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>105401</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>105402</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>105403</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>105404</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>105405</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>296</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel2json-master/QuestScript_Data.xlsx
+++ b/excel2json-master/QuestScript_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B5F7CE-8919-44D4-94AB-61D4399173A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB70C0CB-C42C-4FC1-96B9-B0012D9E884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="465" windowWidth="17820" windowHeight="14685" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1621,20 +1621,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38187CEB-C85B-4882-A8E4-E722601192A3}">
   <dimension ref="A1:E272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B273" sqref="B273"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="80.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="80.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>76</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>100101</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>100102</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>100103</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>100104</v>
       </c>
@@ -1707,9 +1707,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6">
-        <v>100201</v>
+        <v>100301</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>62</v>
@@ -1721,9 +1721,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7">
-        <v>100202</v>
+        <v>100302</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>62</v>
@@ -1735,9 +1735,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8">
-        <v>100301</v>
+        <v>100303</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>62</v>
@@ -1749,7 +1749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>100401</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>100402</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>100501</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>100502</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>100503</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>100504</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>100601</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>100602</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>100603</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>100604</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>100605</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>100606</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>100701</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>100702</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>100703</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>100704</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>100705</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>100706</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>100707</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>100801</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>100802</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>100803</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>100804</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>100805</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>100806</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>100901</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>100902</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>100903</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>100904</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>100905</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>100906</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>101001</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>101002</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>101003</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B43">
         <v>101004</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44">
         <v>101005</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45">
         <v>101006</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B46">
         <v>101007</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>101008</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>101009</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49">
         <v>101010</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50">
         <v>101011</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B51">
         <v>101012</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52">
         <v>101101</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53">
         <v>101102</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>101103</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>101104</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56">
         <v>101105</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B57">
         <v>101106</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B58">
         <v>101107</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B59">
         <v>101108</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>101109</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>101110</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>101201</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B63">
         <v>101202</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B64">
         <v>101203</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B65">
         <v>101204</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66">
         <v>101205</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B67">
         <v>101206</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68">
         <v>101207</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B69">
         <v>101208</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B70">
         <v>101209</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B71">
         <v>101210</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B72">
         <v>101301</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B73">
         <v>101302</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B74">
         <v>101303</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B75">
         <v>101304</v>
       </c>
@@ -2687,9 +2687,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B76">
-        <v>101501</v>
+        <v>101401</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>97</v>
@@ -2701,9 +2701,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B77">
-        <v>101502</v>
+        <v>101402</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2</v>
@@ -2715,9 +2715,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B78">
-        <v>101503</v>
+        <v>101403</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>97</v>
@@ -2729,9 +2729,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B79">
-        <v>101504</v>
+        <v>101404</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2</v>
@@ -2743,9 +2743,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B80">
-        <v>101505</v>
+        <v>101405</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>97</v>
@@ -2757,9 +2757,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B81">
-        <v>101506</v>
+        <v>101406</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>97</v>
@@ -2771,9 +2771,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B82">
-        <v>101601</v>
+        <v>101501</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>97</v>
@@ -2785,9 +2785,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B83">
-        <v>101701</v>
+        <v>101601</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>45</v>
@@ -2799,9 +2799,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B84">
-        <v>101702</v>
+        <v>101602</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>45</v>
@@ -2813,9 +2813,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B85">
-        <v>101703</v>
+        <v>101603</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2</v>
@@ -2827,9 +2827,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B86">
-        <v>101704</v>
+        <v>101604</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>45</v>
@@ -2841,9 +2841,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B87">
-        <v>101705</v>
+        <v>101605</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>45</v>
@@ -2855,9 +2855,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B88">
-        <v>101706</v>
+        <v>101606</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>45</v>
@@ -2869,9 +2869,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B89">
-        <v>101707</v>
+        <v>101607</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>45</v>
@@ -2883,9 +2883,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B90">
-        <v>101801</v>
+        <v>101701</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>92</v>
@@ -2897,9 +2897,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B91">
-        <v>101802</v>
+        <v>101702</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2</v>
@@ -2911,9 +2911,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B92">
-        <v>101803</v>
+        <v>101703</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>92</v>
@@ -2925,9 +2925,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B93">
-        <v>101901</v>
+        <v>101801</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2</v>
@@ -2939,9 +2939,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B94">
-        <v>101902</v>
+        <v>101802</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>92</v>
@@ -2953,9 +2953,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B95">
-        <v>101903</v>
+        <v>101803</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>92</v>
@@ -2967,9 +2967,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B96">
-        <v>101904</v>
+        <v>101804</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>2</v>
@@ -2981,7 +2981,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B97">
         <v>102101</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B98">
         <v>102102</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B99">
         <v>102103</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B100">
         <v>102104</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B101">
         <v>102105</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B102">
         <v>102106</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B103">
         <v>102107</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B104">
         <v>102108</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B105">
         <v>102201</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B106">
         <v>102202</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B107">
         <v>102203</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B108">
         <v>102204</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B109">
         <v>102205</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B110">
         <v>102206</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B111">
         <v>102207</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B112">
         <v>102208</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B113">
         <v>102209</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B114">
         <v>102210</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B115">
         <v>102211</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B116">
         <v>102212</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B117">
         <v>102213</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B118">
         <v>102214</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B119">
         <v>102215</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B120">
         <v>102301</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B121">
         <v>102302</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B122">
         <v>102303</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B123">
         <v>102304</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B124">
         <v>102305</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B125">
         <v>102306</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B126">
         <v>102307</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B127">
         <v>102308</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B128">
         <v>102401</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B129">
         <v>102402</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B130">
         <v>102403</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B131">
         <v>102404</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B132">
         <v>102405</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B133">
         <v>102406</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B134">
         <v>102407</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B135">
         <v>102408</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B136">
         <v>102409</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B137">
         <v>102410</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B138">
         <v>102501</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B139">
         <v>102502</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B140">
         <v>102503</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B141">
         <v>102504</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B142">
         <v>102505</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B143">
         <v>102506</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B144">
         <v>102507</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B145">
         <v>102508</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B146">
         <v>102509</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B147">
         <v>102510</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B148">
         <v>102511</v>
       </c>
@@ -3709,9 +3709,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B149">
-        <v>102701</v>
+        <v>102601</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>2</v>
@@ -3723,9 +3723,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B150">
-        <v>102702</v>
+        <v>102602</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>143</v>
@@ -3737,9 +3737,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B151">
-        <v>102703</v>
+        <v>102603</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>2</v>
@@ -3751,9 +3751,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B152">
-        <v>102704</v>
+        <v>102604</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>143</v>
@@ -3765,9 +3765,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B153">
-        <v>102705</v>
+        <v>102605</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>143</v>
@@ -3779,9 +3779,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B154">
-        <v>102706</v>
+        <v>102606</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
@@ -3793,9 +3793,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B155">
-        <v>102801</v>
+        <v>102701</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>45</v>
@@ -3807,9 +3807,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B156">
-        <v>102802</v>
+        <v>102702</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>2</v>
@@ -3821,9 +3821,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B157">
-        <v>102803</v>
+        <v>102703</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>45</v>
@@ -3835,9 +3835,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B158">
-        <v>102804</v>
+        <v>102704</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>45</v>
@@ -3849,9 +3849,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B159">
-        <v>102805</v>
+        <v>102705</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>45</v>
@@ -3863,9 +3863,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B160">
-        <v>102901</v>
+        <v>102801</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>2</v>
@@ -3877,9 +3877,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B161">
-        <v>102902</v>
+        <v>102802</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>21</v>
@@ -3891,9 +3891,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B162">
-        <v>102903</v>
+        <v>102803</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>21</v>
@@ -3905,9 +3905,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B163">
-        <v>102904</v>
+        <v>102804</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>21</v>
@@ -3919,9 +3919,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B164">
-        <v>102905</v>
+        <v>102805</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>21</v>
@@ -3933,9 +3933,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B165">
-        <v>102906</v>
+        <v>102806</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>21</v>
@@ -3947,9 +3947,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B166">
-        <v>103001</v>
+        <v>102901</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>2</v>
@@ -3961,9 +3961,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B167">
-        <v>103002</v>
+        <v>102902</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>2</v>
@@ -3975,9 +3975,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B168">
-        <v>103003</v>
+        <v>102903</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>2</v>
@@ -3989,9 +3989,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B169">
-        <v>103201</v>
+        <v>103001</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>2</v>
@@ -4003,9 +4003,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B170">
-        <v>103202</v>
+        <v>103002</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>38</v>
@@ -4017,9 +4017,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B171">
-        <v>103203</v>
+        <v>103003</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>2</v>
@@ -4031,9 +4031,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B172">
-        <v>103204</v>
+        <v>103004</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>2</v>
@@ -4045,9 +4045,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B173">
-        <v>103205</v>
+        <v>103005</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>2</v>
@@ -4059,9 +4059,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B174">
-        <v>103301</v>
+        <v>103101</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>2</v>
@@ -4073,9 +4073,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B175">
-        <v>103302</v>
+        <v>103102</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>2</v>
@@ -4087,9 +4087,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B176">
-        <v>103303</v>
+        <v>103103</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>38</v>
@@ -4101,9 +4101,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B177">
-        <v>103304</v>
+        <v>103104</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2</v>
@@ -4115,9 +4115,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B178">
-        <v>103501</v>
+        <v>103401</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>21</v>
@@ -4129,9 +4129,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B179">
-        <v>103502</v>
+        <v>103402</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>21</v>
@@ -4143,9 +4143,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B180">
-        <v>103601</v>
+        <v>103501</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2</v>
@@ -4157,9 +4157,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B181">
-        <v>103602</v>
+        <v>103502</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>2</v>
@@ -4171,9 +4171,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B182">
-        <v>103603</v>
+        <v>103503</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>2</v>
@@ -4185,9 +4185,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B183">
-        <v>103604</v>
+        <v>103504</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>45</v>
@@ -4199,9 +4199,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B184">
-        <v>103605</v>
+        <v>103505</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
@@ -4213,9 +4213,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B185">
-        <v>103701</v>
+        <v>103601</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>54</v>
@@ -4227,9 +4227,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B186">
-        <v>103702</v>
+        <v>103602</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>45</v>
@@ -4241,9 +4241,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B187">
-        <v>103801</v>
+        <v>103701</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>97</v>
@@ -4255,9 +4255,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B188">
-        <v>103802</v>
+        <v>103702</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>97</v>
@@ -4269,9 +4269,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B189">
-        <v>103803</v>
+        <v>103703</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
@@ -4283,9 +4283,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B190">
-        <v>103804</v>
+        <v>103704</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>97</v>
@@ -4297,9 +4297,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B191">
-        <v>103805</v>
+        <v>103705</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>97</v>
@@ -4311,9 +4311,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B192">
-        <v>103806</v>
+        <v>103706</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>143</v>
@@ -4325,9 +4325,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B193">
-        <v>103807</v>
+        <v>103707</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>2</v>
@@ -4339,9 +4339,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B194">
-        <v>103808</v>
+        <v>103708</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>97</v>
@@ -4353,9 +4353,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B195">
-        <v>103809</v>
+        <v>103709</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>143</v>
@@ -4367,9 +4367,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B196">
-        <v>103810</v>
+        <v>103710</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>2</v>
@@ -4381,9 +4381,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B197">
-        <v>103811</v>
+        <v>103711</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>143</v>
@@ -4395,9 +4395,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B198">
-        <v>103812</v>
+        <v>103712</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2</v>
@@ -4409,9 +4409,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B199">
-        <v>103901</v>
+        <v>103801</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>2</v>
@@ -4423,9 +4423,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B200">
-        <v>103902</v>
+        <v>103802</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>143</v>
@@ -4437,9 +4437,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B201">
-        <v>103903</v>
+        <v>103803</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>143</v>
@@ -4451,9 +4451,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B202">
-        <v>103904</v>
+        <v>103804</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>2</v>
@@ -4465,9 +4465,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B203">
-        <v>104001</v>
+        <v>103901</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>2</v>
@@ -4479,9 +4479,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B204">
-        <v>104002</v>
+        <v>103902</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>45</v>
@@ -4493,9 +4493,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B205">
-        <v>104003</v>
+        <v>103903</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>45</v>
@@ -4507,9 +4507,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B206">
-        <v>104201</v>
+        <v>104101</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>45</v>
@@ -4521,9 +4521,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B207">
-        <v>104202</v>
+        <v>104102</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>45</v>
@@ -4535,9 +4535,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B208">
-        <v>104203</v>
+        <v>104103</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>2</v>
@@ -4549,9 +4549,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B209">
-        <v>104204</v>
+        <v>104104</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>45</v>
@@ -4563,9 +4563,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B210">
-        <v>104205</v>
+        <v>104105</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>45</v>
@@ -4577,9 +4577,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B211">
-        <v>104206</v>
+        <v>104106</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>45</v>
@@ -4591,9 +4591,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B212">
-        <v>104301</v>
+        <v>104201</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>54</v>
@@ -4605,9 +4605,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B213">
-        <v>104302</v>
+        <v>104202</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>2</v>
@@ -4619,9 +4619,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B214">
-        <v>104303</v>
+        <v>104203</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>54</v>
@@ -4633,9 +4633,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B215">
-        <v>104304</v>
+        <v>104204</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>54</v>
@@ -4647,9 +4647,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B216">
-        <v>104305</v>
+        <v>104205</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>54</v>
@@ -4661,9 +4661,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B217">
-        <v>104306</v>
+        <v>104206</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>2</v>
@@ -4675,9 +4675,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B218">
-        <v>104307</v>
+        <v>104207</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>54</v>
@@ -4689,9 +4689,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B219">
-        <v>104308</v>
+        <v>104208</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>54</v>
@@ -4703,9 +4703,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B220">
-        <v>104501</v>
+        <v>104401</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>54</v>
@@ -4717,9 +4717,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B221">
-        <v>104502</v>
+        <v>104402</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>2</v>
@@ -4731,9 +4731,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B222">
-        <v>104503</v>
+        <v>104403</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>54</v>
@@ -4745,9 +4745,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B223">
-        <v>104504</v>
+        <v>104404</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>54</v>
@@ -4759,9 +4759,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B224">
-        <v>104505</v>
+        <v>104405</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>54</v>
@@ -4773,9 +4773,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B225">
-        <v>104506</v>
+        <v>104406</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>54</v>
@@ -4787,9 +4787,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B226">
-        <v>104507</v>
+        <v>104407</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>54</v>
@@ -4801,9 +4801,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B227">
-        <v>104508</v>
+        <v>104408</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>2</v>
@@ -4815,9 +4815,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B228">
-        <v>104509</v>
+        <v>104409</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>54</v>
@@ -4829,9 +4829,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B229">
-        <v>104510</v>
+        <v>104410</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>2</v>
@@ -4843,9 +4843,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B230">
-        <v>104601</v>
+        <v>104501</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>2</v>
@@ -4857,9 +4857,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B231">
-        <v>104602</v>
+        <v>104502</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>54</v>
@@ -4871,9 +4871,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B232">
-        <v>104603</v>
+        <v>104503</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>54</v>
@@ -4885,9 +4885,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B233">
-        <v>104701</v>
+        <v>104601</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>2</v>
@@ -4899,9 +4899,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B234">
-        <v>104702</v>
+        <v>104602</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>97</v>
@@ -4913,9 +4913,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B235">
-        <v>104703</v>
+        <v>104603</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>2</v>
@@ -4927,9 +4927,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B236">
-        <v>104704</v>
+        <v>104604</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>97</v>
@@ -4941,9 +4941,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B237">
-        <v>104705</v>
+        <v>104605</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>97</v>
@@ -4955,9 +4955,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B238">
-        <v>104706</v>
+        <v>104606</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>97</v>
@@ -4969,9 +4969,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B239">
-        <v>104707</v>
+        <v>104607</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>2</v>
@@ -4983,9 +4983,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B240">
-        <v>104801</v>
+        <v>104701</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>45</v>
@@ -4997,9 +4997,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B241">
-        <v>104802</v>
+        <v>104702</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>97</v>
@@ -5011,9 +5011,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B242">
-        <v>104803</v>
+        <v>104703</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2</v>
@@ -5025,9 +5025,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B243">
-        <v>104804</v>
+        <v>104704</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2</v>
@@ -5039,9 +5039,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B244">
-        <v>104805</v>
+        <v>104705</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>97</v>
@@ -5053,9 +5053,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B245">
-        <v>104901</v>
+        <v>104801</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>2</v>
@@ -5067,9 +5067,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B246">
-        <v>104902</v>
+        <v>104802</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>54</v>
@@ -5081,9 +5081,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B247">
-        <v>104903</v>
+        <v>104803</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>2</v>
@@ -5095,7 +5095,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B248">
         <v>105001</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B249">
         <v>105002</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B250">
         <v>105003</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B251">
         <v>105004</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B252">
         <v>105101</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B253">
         <v>105102</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B254">
         <v>105103</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B255">
         <v>105104</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B256">
         <v>105105</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B257">
         <v>105106</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B258">
         <v>105107</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B259">
         <v>105108</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B260">
         <v>105109</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B261">
         <v>105201</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B262">
         <v>105202</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B263">
         <v>105203</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B264">
         <v>105204</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B265">
         <v>105205</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B266">
         <v>105301</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B267">
         <v>105302</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B268">
         <v>105401</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B269">
         <v>105402</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B270">
         <v>105403</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B271">
         <v>105404</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B272">
         <v>105405</v>
       </c>

--- a/excel2json-master/QuestScript_Data.xlsx
+++ b/excel2json-master/QuestScript_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB70C0CB-C42C-4FC1-96B9-B0012D9E884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC07F0D-1A04-4564-9F39-DD253E47B46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1621,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38187CEB-C85B-4882-A8E4-E722601192A3}">
   <dimension ref="A1:E272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E263" sqref="E263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B149">
-        <v>102601</v>
+        <v>102701</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>2</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B150">
-        <v>102602</v>
+        <v>102702</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>143</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B151">
-        <v>102603</v>
+        <v>102703</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>2</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B152">
-        <v>102604</v>
+        <v>102704</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>143</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B153">
-        <v>102605</v>
+        <v>102705</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>143</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B154">
-        <v>102606</v>
+        <v>102706</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B155">
-        <v>102701</v>
+        <v>102801</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>45</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B156">
-        <v>102702</v>
+        <v>102802</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>2</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B157">
-        <v>102703</v>
+        <v>102803</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>45</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B158">
-        <v>102704</v>
+        <v>102804</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>45</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B159">
-        <v>102705</v>
+        <v>102805</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>45</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B160">
-        <v>102801</v>
+        <v>102901</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>2</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B161">
-        <v>102802</v>
+        <v>102902</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>21</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B162">
-        <v>102803</v>
+        <v>102903</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>21</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B163">
-        <v>102804</v>
+        <v>102904</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>21</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B164">
-        <v>102805</v>
+        <v>102905</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>21</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B165">
-        <v>102806</v>
+        <v>102906</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>21</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B166">
-        <v>102901</v>
+        <v>103001</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>2</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B167">
-        <v>102902</v>
+        <v>103002</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>2</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B168">
-        <v>102903</v>
+        <v>103003</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>2</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B169">
-        <v>103001</v>
+        <v>103101</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>2</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B170">
-        <v>103002</v>
+        <v>103102</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>38</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B171">
-        <v>103003</v>
+        <v>103103</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>2</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B172">
-        <v>103004</v>
+        <v>103104</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>2</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B173">
-        <v>103005</v>
+        <v>103105</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>2</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B174">
-        <v>103101</v>
+        <v>103201</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>2</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B175">
-        <v>103102</v>
+        <v>103202</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>2</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B176">
-        <v>103103</v>
+        <v>103203</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>38</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B177">
-        <v>103104</v>
+        <v>103204</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B178">
-        <v>103401</v>
+        <v>103501</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>21</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B179">
-        <v>103402</v>
+        <v>103502</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>21</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B180">
-        <v>103501</v>
+        <v>103601</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B181">
-        <v>103502</v>
+        <v>103602</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>2</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B182">
-        <v>103503</v>
+        <v>103603</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>2</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B183">
-        <v>103504</v>
+        <v>103604</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>45</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B184">
-        <v>103505</v>
+        <v>103605</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B185">
-        <v>103601</v>
+        <v>103701</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>54</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B186">
-        <v>103602</v>
+        <v>103702</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>45</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B187">
-        <v>103701</v>
+        <v>103801</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>97</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B188">
-        <v>103702</v>
+        <v>103802</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>97</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B189">
-        <v>103703</v>
+        <v>103803</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B190">
-        <v>103704</v>
+        <v>103804</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>97</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B191">
-        <v>103705</v>
+        <v>103805</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>97</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B192">
-        <v>103706</v>
+        <v>103806</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>143</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B193">
-        <v>103707</v>
+        <v>103807</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>2</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B194">
-        <v>103708</v>
+        <v>103808</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>97</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B195">
-        <v>103709</v>
+        <v>103809</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>143</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B196">
-        <v>103710</v>
+        <v>103810</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>2</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B197">
-        <v>103711</v>
+        <v>103811</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>143</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B198">
-        <v>103712</v>
+        <v>103812</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B199">
-        <v>103801</v>
+        <v>103901</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>2</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B200">
-        <v>103802</v>
+        <v>103902</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>143</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B201">
-        <v>103803</v>
+        <v>103903</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>143</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B202">
-        <v>103804</v>
+        <v>103904</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>2</v>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B203">
-        <v>103901</v>
+        <v>104001</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>2</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B204">
-        <v>103902</v>
+        <v>104002</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>45</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B205">
-        <v>103903</v>
+        <v>104003</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>45</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B206">
-        <v>104101</v>
+        <v>104201</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>45</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B207">
-        <v>104102</v>
+        <v>104202</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>45</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B208">
-        <v>104103</v>
+        <v>104203</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>2</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B209">
-        <v>104104</v>
+        <v>104204</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>45</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B210">
-        <v>104105</v>
+        <v>104205</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>45</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B211">
-        <v>104106</v>
+        <v>104206</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>45</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B212">
-        <v>104201</v>
+        <v>104301</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>54</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B213">
-        <v>104202</v>
+        <v>104302</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>2</v>
@@ -4621,7 +4621,7 @@
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B214">
-        <v>104203</v>
+        <v>104303</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>54</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B215">
-        <v>104204</v>
+        <v>104304</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>54</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B216">
-        <v>104205</v>
+        <v>104305</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>54</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B217">
-        <v>104206</v>
+        <v>104306</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>2</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B218">
-        <v>104207</v>
+        <v>104307</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>54</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B219">
-        <v>104208</v>
+        <v>104308</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>54</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B220">
-        <v>104401</v>
+        <v>104501</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>54</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B221">
-        <v>104402</v>
+        <v>104502</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>2</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B222">
-        <v>104403</v>
+        <v>104503</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>54</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B223">
-        <v>104404</v>
+        <v>104504</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>54</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B224">
-        <v>104405</v>
+        <v>104505</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>54</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B225">
-        <v>104406</v>
+        <v>104506</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>54</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B226">
-        <v>104407</v>
+        <v>104507</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>54</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B227">
-        <v>104408</v>
+        <v>104508</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>2</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B228">
-        <v>104409</v>
+        <v>104509</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>54</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B229">
-        <v>104410</v>
+        <v>104510</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>2</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B230">
-        <v>104501</v>
+        <v>104601</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>2</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B231">
-        <v>104502</v>
+        <v>104602</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>54</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B232">
-        <v>104503</v>
+        <v>104603</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>54</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B233">
-        <v>104601</v>
+        <v>104701</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>2</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B234">
-        <v>104602</v>
+        <v>104702</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>97</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B235">
-        <v>104603</v>
+        <v>104703</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>2</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B236">
-        <v>104604</v>
+        <v>104704</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>97</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B237">
-        <v>104605</v>
+        <v>104705</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>97</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B238">
-        <v>104606</v>
+        <v>104706</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>97</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B239">
-        <v>104607</v>
+        <v>104707</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>2</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B240">
-        <v>104701</v>
+        <v>104801</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>45</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B241">
-        <v>104702</v>
+        <v>104802</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>97</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B242">
-        <v>104703</v>
+        <v>104803</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B243">
-        <v>104704</v>
+        <v>104804</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B244">
-        <v>104705</v>
+        <v>104805</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>97</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B245">
-        <v>104801</v>
+        <v>104901</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>2</v>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B246">
-        <v>104802</v>
+        <v>104902</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>54</v>
@@ -5083,7 +5083,7 @@
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B247">
-        <v>104803</v>
+        <v>104903</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>2</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B248">
-        <v>105001</v>
+        <v>105101</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>45</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B249">
-        <v>105002</v>
+        <v>105102</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>2</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B250">
-        <v>105003</v>
+        <v>105103</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>21</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B251">
-        <v>105004</v>
+        <v>105104</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>2</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B252">
-        <v>105101</v>
+        <v>105201</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>21</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B253">
-        <v>105102</v>
+        <v>105202</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>2</v>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B254">
-        <v>105103</v>
+        <v>105203</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>2</v>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B255">
-        <v>105104</v>
+        <v>105204</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>21</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B256">
-        <v>105105</v>
+        <v>105205</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>21</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B257">
-        <v>105106</v>
+        <v>105206</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>21</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B258">
-        <v>105107</v>
+        <v>105207</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>21</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B259">
-        <v>105108</v>
+        <v>105208</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>21</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B260">
-        <v>105109</v>
+        <v>105209</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>2</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B261">
-        <v>105201</v>
+        <v>105301</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>2</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B262">
-        <v>105202</v>
+        <v>105302</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>21</v>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B263">
-        <v>105203</v>
+        <v>105303</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>21</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B264">
-        <v>105204</v>
+        <v>105304</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>21</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B265">
-        <v>105205</v>
+        <v>105305</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>21</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B266">
-        <v>105301</v>
+        <v>105401</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>2</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B267">
-        <v>105302</v>
+        <v>105402</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>2</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B268">
-        <v>105401</v>
+        <v>105501</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>2</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B269">
-        <v>105402</v>
+        <v>105502</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>2</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B270">
-        <v>105403</v>
+        <v>105503</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>2</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B271">
-        <v>105404</v>
+        <v>105504</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>2</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B272">
-        <v>105405</v>
+        <v>105505</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>2</v>

--- a/excel2json-master/QuestScript_Data.xlsx
+++ b/excel2json-master/QuestScript_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC07F0D-1A04-4564-9F39-DD253E47B46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B9F5EE-493E-491A-A478-F7DEBFC79501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="301">
   <si>
     <t>촌장님한테 돌아가야겠어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,11 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>저..촌장님. 마을과 마을밖의 분위기가 심상치 않은데..
-이유를 더 말씀해주실 수 있을까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>더 강해질 수 있게 만들어 줄 사람이 있네.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,11 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">뚜쉬뚜쉬...? 특이한 이름을 가졌네.
-그나저나 뚜쉬뚜쉬님은 대체 어디에 계시는거야?? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뚜쉬뚜쉬님에게 배운다면 설마 나도 빠샤빠샤? 멋진데?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,11 +547,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>저희 마을 촌장님이 뚜쉬뚜쉬님을 찾아가보라고 하셨습니다.
-더 강해지고 싶어 뚜쉬뚜쉬님을 찾아 왔습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강해져? 풉.. 안돼 돌아가.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1226,6 +1211,28 @@
   <si>
     <t>(그리고 실종되었던 사람들이 발견된 같은장소)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저..촌장님. 마을과 마을밖의 분위기가 심상치 않은데..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유를 더 말씀해주실 수 있을까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그나저나 뚜쉬뚜쉬님은 대체 어디에 계시는거야??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뚜쉬뚜쉬...? 특이한 이름을 가졌네. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 마을 촌장님이 뚜쉬뚜쉬님을 찾아가보라고 하셨습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 강해지고 싶어 뚜쉬뚜쉬님을 찾아 왔습니다.</t>
   </si>
 </sst>
 </file>
@@ -1619,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38187CEB-C85B-4882-A8E4-E722601192A3}">
-  <dimension ref="A1:E272"/>
+  <dimension ref="A1:E275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E263" sqref="E263"/>
+    <sheetView tabSelected="1" topLeftCell="A264" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3009,7 +3016,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B99">
         <v>102103</v>
       </c>
@@ -3020,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>122</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.4">
@@ -3028,13 +3035,13 @@
         <v>102104</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.4">
@@ -3048,7 +3055,7 @@
         <v>44</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.4">
@@ -3062,21 +3069,21 @@
         <v>44</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B103">
         <v>102107</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>126</v>
+        <v>44</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.4">
@@ -3090,12 +3097,12 @@
         <v>1</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>127</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B105">
-        <v>102201</v>
+        <v>102109</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>2</v>
@@ -3103,27 +3110,27 @@
       <c r="D105" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>128</v>
+      <c r="E105" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B106">
-        <v>102202</v>
+        <v>102110</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>144</v>
+        <v>2</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B107">
-        <v>102203</v>
+        <v>102201</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>2</v>
@@ -3131,27 +3138,27 @@
       <c r="D107" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>130</v>
+      <c r="E107" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B108">
-        <v>102204</v>
+        <v>102202</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B109">
-        <v>102205</v>
+        <v>102203</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>2</v>
@@ -3160,12 +3167,12 @@
         <v>1</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>138</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B110">
-        <v>102206</v>
+        <v>102204</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>2</v>
@@ -3173,47 +3180,47 @@
       <c r="D110" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>137</v>
+      <c r="E110" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B111">
-        <v>102207</v>
+        <v>102205</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B112">
-        <v>102208</v>
+        <v>102206</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>133</v>
+        <v>1</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B113">
-        <v>102209</v>
+        <v>102207</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>134</v>
@@ -3221,203 +3228,203 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B114">
-        <v>102210</v>
+        <v>102208</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B115">
-        <v>102211</v>
+        <v>102209</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B116">
-        <v>102212</v>
+        <v>102210</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B117">
-        <v>102213</v>
+        <v>102211</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B118">
-        <v>102214</v>
+        <v>102212</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B119">
-        <v>102215</v>
+        <v>102213</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B120">
-        <v>102301</v>
+        <v>102214</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B121">
-        <v>102302</v>
+        <v>102215</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B122">
-        <v>102303</v>
+        <v>102216</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B123">
-        <v>102304</v>
+        <v>102301</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B124">
-        <v>102305</v>
+        <v>102302</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B125">
-        <v>102306</v>
+        <v>102303</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B126">
-        <v>102307</v>
+        <v>102304</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B127">
-        <v>102308</v>
+        <v>102305</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B128">
-        <v>102401</v>
+        <v>102306</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>2</v>
@@ -3426,124 +3433,124 @@
         <v>1</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B129">
-        <v>102402</v>
+        <v>102307</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B130">
-        <v>102403</v>
+        <v>102308</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>155</v>
+        <v>1</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B131">
-        <v>102404</v>
+        <v>102401</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B132">
-        <v>102405</v>
+        <v>102402</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B133">
-        <v>102406</v>
+        <v>102403</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B134">
-        <v>102407</v>
+        <v>102404</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B135">
-        <v>102408</v>
+        <v>102405</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B136">
-        <v>102409</v>
+        <v>102406</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B137">
-        <v>102410</v>
+        <v>102407</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>2</v>
@@ -3552,110 +3559,110 @@
         <v>1</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B138">
-        <v>102501</v>
+        <v>102408</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B139">
-        <v>102502</v>
+        <v>102409</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B140">
-        <v>102503</v>
+        <v>102410</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B141">
-        <v>102504</v>
+        <v>102501</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B142">
-        <v>102505</v>
+        <v>102502</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B143">
-        <v>102506</v>
+        <v>102503</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B144">
-        <v>102507</v>
+        <v>102504</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B145">
-        <v>102508</v>
+        <v>102505</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>2</v>
@@ -3664,124 +3671,124 @@
         <v>1</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B146">
-        <v>102509</v>
+        <v>102506</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>171</v>
+        <v>142</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B147">
-        <v>102510</v>
+        <v>102507</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B148">
-        <v>102511</v>
+        <v>102508</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B149">
-        <v>102701</v>
+        <v>102509</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>174</v>
+        <v>142</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B150">
-        <v>102702</v>
+        <v>102510</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B151">
-        <v>102703</v>
+        <v>102511</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B152">
-        <v>102704</v>
+        <v>102701</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B153">
-        <v>102705</v>
+        <v>102702</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>178</v>
+        <v>142</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B154">
-        <v>102706</v>
+        <v>102703</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
@@ -3790,54 +3797,54 @@
         <v>1</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B155">
-        <v>102801</v>
+        <v>102704</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B156">
-        <v>102802</v>
+        <v>102705</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>184</v>
+        <v>142</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B157">
-        <v>102803</v>
+        <v>102706</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>181</v>
+        <v>1</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B158">
-        <v>102804</v>
+        <v>102801</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>45</v>
@@ -3846,82 +3853,82 @@
         <v>44</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B159">
-        <v>102805</v>
+        <v>102802</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B160">
-        <v>102901</v>
+        <v>102803</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>185</v>
+        <v>44</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B161">
-        <v>102902</v>
+        <v>102804</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B162">
-        <v>102903</v>
+        <v>102805</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B163">
-        <v>102904</v>
+        <v>102901</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B164">
-        <v>102905</v>
+        <v>102902</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>21</v>
@@ -3929,13 +3936,13 @@
       <c r="D164" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>189</v>
+      <c r="E164" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B165">
-        <v>102906</v>
+        <v>102903</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>21</v>
@@ -3944,54 +3951,54 @@
         <v>20</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B166">
-        <v>103001</v>
+        <v>102904</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B167">
-        <v>103002</v>
+        <v>102905</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>191</v>
+        <v>20</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B168">
-        <v>103003</v>
+        <v>102906</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>192</v>
+        <v>20</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B169">
-        <v>103101</v>
+        <v>103001</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>2</v>
@@ -4000,26 +4007,26 @@
         <v>1</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B170">
-        <v>103102</v>
+        <v>103002</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B171">
-        <v>103103</v>
+        <v>103003</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>2</v>
@@ -4028,12 +4035,12 @@
         <v>1</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B172">
-        <v>103104</v>
+        <v>103101</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>2</v>
@@ -4042,26 +4049,26 @@
         <v>1</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B173">
-        <v>103105</v>
+        <v>103102</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B174">
-        <v>103201</v>
+        <v>103103</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>2</v>
@@ -4069,13 +4076,13 @@
       <c r="D174" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>202</v>
+      <c r="E174" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B175">
-        <v>103202</v>
+        <v>103104</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>2</v>
@@ -4084,26 +4091,26 @@
         <v>1</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B176">
-        <v>103203</v>
+        <v>103105</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B177">
-        <v>103204</v>
+        <v>103201</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2</v>
@@ -4112,40 +4119,40 @@
         <v>1</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B178">
-        <v>103501</v>
+        <v>103202</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>203</v>
+        <v>1</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B179">
-        <v>103502</v>
+        <v>103203</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B180">
-        <v>103601</v>
+        <v>103204</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2</v>
@@ -4154,54 +4161,54 @@
         <v>1</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B181">
-        <v>103602</v>
+        <v>103501</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>206</v>
+        <v>20</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B182">
-        <v>103603</v>
+        <v>103502</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B183">
-        <v>103604</v>
+        <v>103601</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>208</v>
+        <v>1</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B184">
-        <v>103605</v>
+        <v>103602</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
@@ -4210,26 +4217,26 @@
         <v>1</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B185">
-        <v>103701</v>
+        <v>103603</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B186">
-        <v>103702</v>
+        <v>103604</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>45</v>
@@ -4238,54 +4245,54 @@
         <v>44</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B187">
-        <v>103801</v>
+        <v>103605</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B188">
-        <v>103802</v>
+        <v>103701</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B189">
-        <v>103803</v>
+        <v>103702</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B190">
-        <v>103804</v>
+        <v>103801</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>97</v>
@@ -4294,12 +4301,12 @@
         <v>98</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B191">
-        <v>103805</v>
+        <v>103802</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>97</v>
@@ -4308,40 +4315,40 @@
         <v>98</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B192">
-        <v>103806</v>
+        <v>103803</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>217</v>
+        <v>1</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B193">
-        <v>103807</v>
+        <v>103804</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B194">
-        <v>103808</v>
+        <v>103805</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>97</v>
@@ -4350,26 +4357,26 @@
         <v>98</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B195">
-        <v>103809</v>
+        <v>103806</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B196">
-        <v>103810</v>
+        <v>103807</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>2</v>
@@ -4378,40 +4385,40 @@
         <v>1</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B197">
-        <v>103811</v>
+        <v>103808</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B198">
-        <v>103812</v>
+        <v>103809</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B199">
-        <v>103901</v>
+        <v>103810</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>2</v>
@@ -4420,40 +4427,40 @@
         <v>1</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B200">
-        <v>103902</v>
+        <v>103811</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>225</v>
+        <v>142</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B201">
-        <v>103903</v>
+        <v>103812</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B202">
-        <v>103904</v>
+        <v>103901</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>2</v>
@@ -4462,68 +4469,68 @@
         <v>1</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B203">
-        <v>104001</v>
+        <v>103902</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>228</v>
+        <v>142</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B204">
-        <v>104002</v>
+        <v>103903</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B205">
-        <v>104003</v>
+        <v>103904</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>230</v>
+        <v>1</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B206">
-        <v>104201</v>
+        <v>104001</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B207">
-        <v>104202</v>
+        <v>104002</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>45</v>
@@ -4532,26 +4539,26 @@
         <v>44</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B208">
-        <v>104203</v>
+        <v>104003</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>233</v>
+        <v>44</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B209">
-        <v>104204</v>
+        <v>104201</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>45</v>
@@ -4559,13 +4566,13 @@
       <c r="D209" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E209" s="3" t="s">
-        <v>234</v>
+      <c r="E209" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B210">
-        <v>104205</v>
+        <v>104202</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>45</v>
@@ -4574,68 +4581,68 @@
         <v>44</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B211">
-        <v>104206</v>
+        <v>104203</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B212">
-        <v>104301</v>
+        <v>104204</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>237</v>
+        <v>44</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B213">
-        <v>104302</v>
+        <v>104205</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B214">
-        <v>104303</v>
+        <v>104206</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B215">
-        <v>104304</v>
+        <v>104301</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>54</v>
@@ -4644,40 +4651,40 @@
         <v>53</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B216">
-        <v>104305</v>
+        <v>104302</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B217">
-        <v>104306</v>
+        <v>104303</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B218">
-        <v>104307</v>
+        <v>104304</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>54</v>
@@ -4686,12 +4693,12 @@
         <v>53</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B219">
-        <v>104308</v>
+        <v>104305</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>54</v>
@@ -4700,40 +4707,40 @@
         <v>53</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B220">
-        <v>104501</v>
+        <v>104306</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>245</v>
+        <v>1</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B221">
-        <v>104502</v>
+        <v>104307</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B222">
-        <v>104503</v>
+        <v>104308</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>54</v>
@@ -4742,12 +4749,12 @@
         <v>53</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B223">
-        <v>104504</v>
+        <v>104501</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>54</v>
@@ -4755,27 +4762,27 @@
       <c r="D223" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E223" s="1" t="s">
-        <v>248</v>
+      <c r="E223" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B224">
-        <v>104505</v>
+        <v>104502</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B225">
-        <v>104506</v>
+        <v>104503</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>54</v>
@@ -4784,12 +4791,12 @@
         <v>53</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B226">
-        <v>104507</v>
+        <v>104504</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>54</v>
@@ -4798,26 +4805,26 @@
         <v>53</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B227">
-        <v>104508</v>
+        <v>104505</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B228">
-        <v>104509</v>
+        <v>104506</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>54</v>
@@ -4825,27 +4832,27 @@
       <c r="D228" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E228" s="3" t="s">
-        <v>253</v>
+      <c r="E228" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B229">
-        <v>104510</v>
+        <v>104507</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B230">
-        <v>104601</v>
+        <v>104508</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>2</v>
@@ -4854,12 +4861,12 @@
         <v>1</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B231">
-        <v>104602</v>
+        <v>104509</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>54</v>
@@ -4867,27 +4874,27 @@
       <c r="D231" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E231" s="1" t="s">
-        <v>256</v>
+      <c r="E231" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B232">
-        <v>104603</v>
+        <v>104510</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B233">
-        <v>104701</v>
+        <v>104601</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>2</v>
@@ -4896,54 +4903,54 @@
         <v>1</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B234">
-        <v>104702</v>
+        <v>104602</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B235">
-        <v>104703</v>
+        <v>104603</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B236">
-        <v>104704</v>
+        <v>104701</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>261</v>
+        <v>1</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B237">
-        <v>104705</v>
+        <v>104702</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>97</v>
@@ -4952,54 +4959,54 @@
         <v>98</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B238">
-        <v>104706</v>
+        <v>104703</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B239">
-        <v>104707</v>
+        <v>104704</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B240">
-        <v>104801</v>
+        <v>104705</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B241">
-        <v>104802</v>
+        <v>104706</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>97</v>
@@ -5008,12 +5015,12 @@
         <v>98</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B242">
-        <v>104803</v>
+        <v>104707</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2</v>
@@ -5021,27 +5028,27 @@
       <c r="D242" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E242" s="1" t="s">
-        <v>267</v>
+      <c r="E242" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B243">
-        <v>104804</v>
+        <v>104801</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B244">
-        <v>104805</v>
+        <v>104802</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>97</v>
@@ -5050,12 +5057,12 @@
         <v>98</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B245">
-        <v>104901</v>
+        <v>104803</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>2</v>
@@ -5064,124 +5071,124 @@
         <v>1</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B246">
-        <v>104902</v>
+        <v>104804</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B247">
-        <v>104903</v>
+        <v>104805</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B248">
-        <v>105101</v>
+        <v>104901</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E248" s="3" t="s">
-        <v>273</v>
+        <v>1</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B249">
-        <v>105102</v>
+        <v>104902</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B250">
-        <v>105103</v>
+        <v>104903</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B251">
-        <v>105104</v>
+        <v>105101</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>276</v>
+        <v>44</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B252">
-        <v>105201</v>
+        <v>105102</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B253">
-        <v>105202</v>
+        <v>105103</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B254">
-        <v>105203</v>
+        <v>105104</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>2</v>
@@ -5189,13 +5196,13 @@
       <c r="D254" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E254" s="3" t="s">
-        <v>279</v>
+      <c r="E254" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B255">
-        <v>105204</v>
+        <v>105201</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>21</v>
@@ -5203,41 +5210,41 @@
       <c r="D255" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E255" s="3" t="s">
-        <v>280</v>
+      <c r="E255" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B256">
-        <v>105205</v>
+        <v>105202</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B257">
-        <v>105206</v>
+        <v>105203</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>282</v>
+        <v>1</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B258">
-        <v>105207</v>
+        <v>105204</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>21</v>
@@ -5245,13 +5252,13 @@
       <c r="D258" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E258" s="1" t="s">
-        <v>283</v>
+      <c r="E258" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B259">
-        <v>105208</v>
+        <v>105205</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>21</v>
@@ -5260,40 +5267,40 @@
         <v>20</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B260">
-        <v>105209</v>
+        <v>105206</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B261">
-        <v>105301</v>
+        <v>105207</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E261" s="3" t="s">
-        <v>286</v>
+        <v>20</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B262">
-        <v>105302</v>
+        <v>105208</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>21</v>
@@ -5302,40 +5309,40 @@
         <v>20</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B263">
-        <v>105303</v>
+        <v>105209</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B264">
-        <v>105304</v>
+        <v>105301</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>289</v>
+        <v>1</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B265">
-        <v>105305</v>
+        <v>105302</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>21</v>
@@ -5344,54 +5351,54 @@
         <v>20</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B266">
-        <v>105401</v>
+        <v>105303</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B267">
-        <v>105402</v>
+        <v>105304</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B268">
-        <v>105501</v>
+        <v>105305</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B269">
-        <v>105502</v>
+        <v>105401</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>2</v>
@@ -5399,13 +5406,13 @@
       <c r="D269" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E269" s="3" t="s">
-        <v>294</v>
+      <c r="E269" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B270">
-        <v>105503</v>
+        <v>105402</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>2</v>
@@ -5414,12 +5421,12 @@
         <v>1</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B271">
-        <v>105504</v>
+        <v>105501</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>2</v>
@@ -5427,22 +5434,64 @@
       <c r="D271" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E271" s="3" t="s">
-        <v>297</v>
+      <c r="E271" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B272">
+        <v>105502</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B273">
+        <v>105503</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B274">
+        <v>105504</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B275">
         <v>105505</v>
       </c>
-      <c r="C272" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>296</v>
+      <c r="C275" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/QuestScript_Data.xlsx
+++ b/excel2json-master/QuestScript_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B9F5EE-493E-491A-A478-F7DEBFC79501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CF26C5-F7CD-442E-BEB1-4F19FCDABED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
   </bookViews>
@@ -1628,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38187CEB-C85B-4882-A8E4-E722601192A3}">
   <dimension ref="A1:E275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>

--- a/excel2json-master/QuestScript_Data.xlsx
+++ b/excel2json-master/QuestScript_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CF26C5-F7CD-442E-BEB1-4F19FCDABED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B3C1E7-9AA7-437E-8496-BA0D262233A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="13605" windowHeight="14685" xr2:uid="{8A398EBC-9C4D-4430-B016-D61C1F5CC80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="345">
   <si>
     <t>촌장님한테 돌아가야겠어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1233,6 +1233,182 @@
   </si>
   <si>
     <t>더 강해지고 싶어 뚜쉬뚜쉬님을 찾아 왔습니다.</t>
+  </si>
+  <si>
+    <t>촌장님!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 일인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을사람들의 모습이 변하고, 사라지고, 이상행동을 하는 것은 고대 마왕의 저주와 비슷해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 오래된 기억에 의하면 저희 왕국이 마왕과 전쟁을 벌일 적이 있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전쟁 중 정신이 없었지만 이 마을에서 일어난 일과 비슷한 일들이 벌어졌어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 주민들은 자각 못했지만 나눴던 말 중에 힌트가 있었어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐?? 그럼 우리 마을이 마왕의 저주라도 받았다는 말인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럴리는 없네! 무슨 말도 안되는 얘기인가!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 자네를 너무 믿었구만.. 그런 실없는 이야기일 줄이야.. 우리마을에서 나가주게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(왜 촌장님이 저렇게 적대적이신거지..?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(어쩌면 스승님은 알고 계실까?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승님~!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승님!!!!! 스승님~~!!!!!?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이럴수가 이번엔 스승님이 사라지셨어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 '그 장소'로 가봐야 겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체 스승님은 어디에 계신 걸까..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니!? 어떻게 된거지? 왜 이번엔 아무 것도 없는 거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(촌장님은 떠나라고 하셨지만..이 마을을 이대로 둘 순 없어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(스승님이 아예 사라지신 지금이 제일 위험할거야.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(어떻게든 마을에서 단서를 더 찾아봐야해!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 자네 아직도 안떠났는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저의 스승님이 사라지셨습니다. 부꾸부꾸나 게로게로를 찾은 장소에 가봐도 보이질 않아요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 자네와 상관없는 일 일세! 우리가 알아서 할테니 신경쓰지말게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승님은 촌장님이 소개시켜 주셨잖아요. 그리고 마을의 이상한 일도..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">또 마왕의 저주니 뭐니 그런 시덥잖은 이야기를 하는 겐가!? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각해보니 자네가 온 이후로 이상해진 건 아닌가! 어서 마을을 떠나주게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 자네와 이야기를 하지 않겠네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>... 촌장님이 뭔가 잘못 생각하고 계신것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌장님을 설득하기 위해 뭐라도 해야겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌장님.. 약소하지만 좋아하시는 것들 몇개 챙겨왔어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 생각에는 마을이 정말 위험한 것같아요. 제가 도와드릴게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(부족한걸까..뭔가 마을을 위한 것을 해야겠어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(마을 주변 동물들이 난폭해졌다고 하셨었지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(마을의 안전을 위해 동물들을 진정시켜야겠어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌장님. 마을 주변에 있는 동물들을 많이 진정시켰어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 위험한 동물들은 아직 남아있어요.. 마저 진정시키고 올게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 근처 위험했던 동물들이 대부분 진정이 됐어요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이젠 당분간 큰 위험은 없을 것 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 마을에 도움이 되고 싶어요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자네 말귀를 참 못알아듣는구만! 혼나야 정신을 차릴게냐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄송합니다 촌장님..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(촌장님한테도 아티펙트가 떨어졌잖아!?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(처음 내가 갖고있었던 것, 서리서리에게 떨어진 것, 촌장님한테 떨어진 것 총 세개야)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(앗 희미하게 빛을 내고 있잖아?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1290,7 +1466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1311,6 +1487,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1626,22 +1805,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38187CEB-C85B-4882-A8E4-E722601192A3}">
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="80.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="80.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>76</v>
       </c>
@@ -1658,7 +1837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>100101</v>
       </c>
@@ -1672,7 +1851,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>100102</v>
       </c>
@@ -1686,7 +1865,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>100103</v>
       </c>
@@ -1700,7 +1879,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>100104</v>
       </c>
@@ -1714,7 +1893,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>100301</v>
       </c>
@@ -1728,7 +1907,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>100302</v>
       </c>
@@ -1742,7 +1921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>100303</v>
       </c>
@@ -1756,7 +1935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>100401</v>
       </c>
@@ -1770,7 +1949,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>100402</v>
       </c>
@@ -1784,7 +1963,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>100501</v>
       </c>
@@ -1798,7 +1977,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>100502</v>
       </c>
@@ -1812,7 +1991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>100503</v>
       </c>
@@ -1826,7 +2005,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>100504</v>
       </c>
@@ -1840,7 +2019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>100601</v>
       </c>
@@ -1854,7 +2033,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>100602</v>
       </c>
@@ -1868,7 +2047,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>100603</v>
       </c>
@@ -1882,7 +2061,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>100604</v>
       </c>
@@ -1896,7 +2075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>100605</v>
       </c>
@@ -1910,7 +2089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>100606</v>
       </c>
@@ -1924,7 +2103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>100701</v>
       </c>
@@ -1938,7 +2117,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>100702</v>
       </c>
@@ -1952,7 +2131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>100703</v>
       </c>
@@ -1966,7 +2145,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>100704</v>
       </c>
@@ -1980,7 +2159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>100705</v>
       </c>
@@ -1994,7 +2173,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>100706</v>
       </c>
@@ -2008,7 +2187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>100707</v>
       </c>
@@ -2022,7 +2201,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>100801</v>
       </c>
@@ -2036,7 +2215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>100802</v>
       </c>
@@ -2050,7 +2229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>100803</v>
       </c>
@@ -2064,7 +2243,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>100804</v>
       </c>
@@ -2078,7 +2257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>100805</v>
       </c>
@@ -2092,7 +2271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>100806</v>
       </c>
@@ -2106,7 +2285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>100901</v>
       </c>
@@ -2120,7 +2299,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>100902</v>
       </c>
@@ -2134,7 +2313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>100903</v>
       </c>
@@ -2148,7 +2327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>100904</v>
       </c>
@@ -2162,7 +2341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>100905</v>
       </c>
@@ -2176,7 +2355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>100906</v>
       </c>
@@ -2190,7 +2369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>101001</v>
       </c>
@@ -2204,7 +2383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>101002</v>
       </c>
@@ -2218,7 +2397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>101003</v>
       </c>
@@ -2232,7 +2411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>101004</v>
       </c>
@@ -2246,7 +2425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>101005</v>
       </c>
@@ -2260,7 +2439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>101006</v>
       </c>
@@ -2274,7 +2453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>101007</v>
       </c>
@@ -2288,7 +2467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>101008</v>
       </c>
@@ -2302,7 +2481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>101009</v>
       </c>
@@ -2316,7 +2495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>101010</v>
       </c>
@@ -2330,7 +2509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>101011</v>
       </c>
@@ -2344,7 +2523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>101012</v>
       </c>
@@ -2358,7 +2537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>101101</v>
       </c>
@@ -2372,7 +2551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>101102</v>
       </c>
@@ -2386,7 +2565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>101103</v>
       </c>
@@ -2400,7 +2579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>101104</v>
       </c>
@@ -2414,7 +2593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>101105</v>
       </c>
@@ -2428,7 +2607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>101106</v>
       </c>
@@ -2442,7 +2621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>101107</v>
       </c>
@@ -2456,7 +2635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>101108</v>
       </c>
@@ -2470,7 +2649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>101109</v>
       </c>
@@ -2484,7 +2663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>101110</v>
       </c>
@@ -2498,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>101201</v>
       </c>
@@ -2512,7 +2691,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>101202</v>
       </c>
@@ -2526,7 +2705,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>101203</v>
       </c>
@@ -2540,7 +2719,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>101204</v>
       </c>
@@ -2554,7 +2733,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>101205</v>
       </c>
@@ -2568,7 +2747,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>101206</v>
       </c>
@@ -2582,7 +2761,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>101207</v>
       </c>
@@ -2596,7 +2775,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>101208</v>
       </c>
@@ -2610,7 +2789,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>101209</v>
       </c>
@@ -2624,7 +2803,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>101210</v>
       </c>
@@ -2638,7 +2817,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>101301</v>
       </c>
@@ -2652,7 +2831,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>101302</v>
       </c>
@@ -2666,7 +2845,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>101303</v>
       </c>
@@ -2680,7 +2859,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>101304</v>
       </c>
@@ -2694,7 +2873,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>101401</v>
       </c>
@@ -2708,7 +2887,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>101402</v>
       </c>
@@ -2722,7 +2901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>101403</v>
       </c>
@@ -2736,7 +2915,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>101404</v>
       </c>
@@ -2750,7 +2929,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>101405</v>
       </c>
@@ -2764,7 +2943,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>101406</v>
       </c>
@@ -2778,7 +2957,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>101501</v>
       </c>
@@ -2792,7 +2971,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>101601</v>
       </c>
@@ -2806,7 +2985,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>101602</v>
       </c>
@@ -2820,7 +2999,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>101603</v>
       </c>
@@ -2834,7 +3013,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>101604</v>
       </c>
@@ -2848,7 +3027,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>101605</v>
       </c>
@@ -2862,7 +3041,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>101606</v>
       </c>
@@ -2876,7 +3055,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>101607</v>
       </c>
@@ -2890,7 +3069,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>101701</v>
       </c>
@@ -2904,7 +3083,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>101702</v>
       </c>
@@ -2918,7 +3097,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>101703</v>
       </c>
@@ -2932,7 +3111,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>101801</v>
       </c>
@@ -2946,7 +3125,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>101802</v>
       </c>
@@ -2960,7 +3139,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>101803</v>
       </c>
@@ -2974,7 +3153,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>101804</v>
       </c>
@@ -2988,7 +3167,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>102101</v>
       </c>
@@ -3002,7 +3181,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>102102</v>
       </c>
@@ -3016,7 +3195,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>102103</v>
       </c>
@@ -3030,7 +3209,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>102104</v>
       </c>
@@ -3044,7 +3223,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>102105</v>
       </c>
@@ -3058,7 +3237,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102">
         <v>102106</v>
       </c>
@@ -3072,7 +3251,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103">
         <v>102107</v>
       </c>
@@ -3086,7 +3265,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104">
         <v>102108</v>
       </c>
@@ -3100,7 +3279,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>102109</v>
       </c>
@@ -3114,7 +3293,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>102110</v>
       </c>
@@ -3128,7 +3307,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>102201</v>
       </c>
@@ -3142,7 +3321,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>102202</v>
       </c>
@@ -3156,7 +3335,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109">
         <v>102203</v>
       </c>
@@ -3170,7 +3349,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>102204</v>
       </c>
@@ -3184,7 +3363,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>102205</v>
       </c>
@@ -3198,7 +3377,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>102206</v>
       </c>
@@ -3212,7 +3391,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113">
         <v>102207</v>
       </c>
@@ -3226,7 +3405,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114">
         <v>102208</v>
       </c>
@@ -3240,7 +3419,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>102209</v>
       </c>
@@ -3254,7 +3433,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>102210</v>
       </c>
@@ -3268,7 +3447,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117">
         <v>102211</v>
       </c>
@@ -3282,7 +3461,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118">
         <v>102212</v>
       </c>
@@ -3296,7 +3475,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119">
         <v>102213</v>
       </c>
@@ -3310,7 +3489,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120">
         <v>102214</v>
       </c>
@@ -3324,7 +3503,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121">
         <v>102215</v>
       </c>
@@ -3338,7 +3517,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>102216</v>
       </c>
@@ -3352,7 +3531,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123">
         <v>102301</v>
       </c>
@@ -3366,7 +3545,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124">
         <v>102302</v>
       </c>
@@ -3380,7 +3559,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125">
         <v>102303</v>
       </c>
@@ -3394,7 +3573,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126">
         <v>102304</v>
       </c>
@@ -3408,7 +3587,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127">
         <v>102305</v>
       </c>
@@ -3422,7 +3601,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128">
         <v>102306</v>
       </c>
@@ -3436,7 +3615,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129">
         <v>102307</v>
       </c>
@@ -3450,7 +3629,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>102308</v>
       </c>
@@ -3464,7 +3643,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>102401</v>
       </c>
@@ -3478,7 +3657,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>102402</v>
       </c>
@@ -3492,7 +3671,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>102403</v>
       </c>
@@ -3506,7 +3685,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>102404</v>
       </c>
@@ -3520,7 +3699,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135">
         <v>102405</v>
       </c>
@@ -3534,7 +3713,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136">
         <v>102406</v>
       </c>
@@ -3548,7 +3727,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137">
         <v>102407</v>
       </c>
@@ -3562,7 +3741,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138">
         <v>102408</v>
       </c>
@@ -3576,7 +3755,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139">
         <v>102409</v>
       </c>
@@ -3590,7 +3769,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140">
         <v>102410</v>
       </c>
@@ -3604,7 +3783,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B141">
         <v>102501</v>
       </c>
@@ -3618,7 +3797,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142">
         <v>102502</v>
       </c>
@@ -3632,7 +3811,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143">
         <v>102503</v>
       </c>
@@ -3646,7 +3825,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144">
         <v>102504</v>
       </c>
@@ -3660,7 +3839,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145">
         <v>102505</v>
       </c>
@@ -3674,7 +3853,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B146">
         <v>102506</v>
       </c>
@@ -3688,7 +3867,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147">
         <v>102507</v>
       </c>
@@ -3702,7 +3881,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148">
         <v>102508</v>
       </c>
@@ -3716,7 +3895,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149">
         <v>102509</v>
       </c>
@@ -3730,7 +3909,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150">
         <v>102510</v>
       </c>
@@ -3744,7 +3923,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B151">
         <v>102511</v>
       </c>
@@ -3758,7 +3937,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B152">
         <v>102701</v>
       </c>
@@ -3772,7 +3951,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B153">
         <v>102702</v>
       </c>
@@ -3786,7 +3965,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B154">
         <v>102703</v>
       </c>
@@ -3800,7 +3979,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155">
         <v>102704</v>
       </c>
@@ -3814,7 +3993,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156">
         <v>102705</v>
       </c>
@@ -3828,7 +4007,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B157">
         <v>102706</v>
       </c>
@@ -3842,7 +4021,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158">
         <v>102801</v>
       </c>
@@ -3856,7 +4035,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159">
         <v>102802</v>
       </c>
@@ -3870,7 +4049,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B160">
         <v>102803</v>
       </c>
@@ -3884,7 +4063,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B161">
         <v>102804</v>
       </c>
@@ -3898,7 +4077,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B162">
         <v>102805</v>
       </c>
@@ -3912,7 +4091,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163">
         <v>102901</v>
       </c>
@@ -3926,7 +4105,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164">
         <v>102902</v>
       </c>
@@ -3940,7 +4119,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B165">
         <v>102903</v>
       </c>
@@ -3954,7 +4133,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166">
         <v>102904</v>
       </c>
@@ -3968,7 +4147,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B167">
         <v>102905</v>
       </c>
@@ -3982,7 +4161,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B168">
         <v>102906</v>
       </c>
@@ -3996,7 +4175,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B169">
         <v>103001</v>
       </c>
@@ -4010,7 +4189,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B170">
         <v>103002</v>
       </c>
@@ -4024,7 +4203,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171">
         <v>103003</v>
       </c>
@@ -4038,7 +4217,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B172">
         <v>103101</v>
       </c>
@@ -4052,7 +4231,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B173">
         <v>103102</v>
       </c>
@@ -4066,7 +4245,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B174">
         <v>103103</v>
       </c>
@@ -4080,7 +4259,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B175">
         <v>103104</v>
       </c>
@@ -4094,7 +4273,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B176">
         <v>103105</v>
       </c>
@@ -4108,7 +4287,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B177">
         <v>103201</v>
       </c>
@@ -4122,7 +4301,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B178">
         <v>103202</v>
       </c>
@@ -4136,7 +4315,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B179">
         <v>103203</v>
       </c>
@@ -4150,7 +4329,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B180">
         <v>103204</v>
       </c>
@@ -4164,7 +4343,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181">
         <v>103501</v>
       </c>
@@ -4178,7 +4357,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B182">
         <v>103502</v>
       </c>
@@ -4192,7 +4371,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B183">
         <v>103601</v>
       </c>
@@ -4206,7 +4385,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184">
         <v>103602</v>
       </c>
@@ -4220,7 +4399,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B185">
         <v>103603</v>
       </c>
@@ -4234,7 +4413,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B186">
         <v>103604</v>
       </c>
@@ -4248,7 +4427,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B187">
         <v>103605</v>
       </c>
@@ -4262,7 +4441,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B188">
         <v>103701</v>
       </c>
@@ -4276,7 +4455,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B189">
         <v>103702</v>
       </c>
@@ -4290,7 +4469,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B190">
         <v>103801</v>
       </c>
@@ -4304,7 +4483,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B191">
         <v>103802</v>
       </c>
@@ -4318,7 +4497,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B192">
         <v>103803</v>
       </c>
@@ -4332,7 +4511,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B193">
         <v>103804</v>
       </c>
@@ -4346,7 +4525,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B194">
         <v>103805</v>
       </c>
@@ -4360,7 +4539,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B195">
         <v>103806</v>
       </c>
@@ -4374,7 +4553,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B196">
         <v>103807</v>
       </c>
@@ -4388,7 +4567,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B197">
         <v>103808</v>
       </c>
@@ -4402,7 +4581,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B198">
         <v>103809</v>
       </c>
@@ -4416,7 +4595,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B199">
         <v>103810</v>
       </c>
@@ -4430,7 +4609,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B200">
         <v>103811</v>
       </c>
@@ -4444,7 +4623,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B201">
         <v>103812</v>
       </c>
@@ -4458,7 +4637,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B202">
         <v>103901</v>
       </c>
@@ -4472,7 +4651,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B203">
         <v>103902</v>
       </c>
@@ -4486,7 +4665,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B204">
         <v>103903</v>
       </c>
@@ -4500,7 +4679,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B205">
         <v>103904</v>
       </c>
@@ -4514,7 +4693,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B206">
         <v>104001</v>
       </c>
@@ -4528,7 +4707,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B207">
         <v>104002</v>
       </c>
@@ -4542,7 +4721,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B208">
         <v>104003</v>
       </c>
@@ -4556,7 +4735,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B209">
         <v>104201</v>
       </c>
@@ -4570,7 +4749,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B210">
         <v>104202</v>
       </c>
@@ -4584,7 +4763,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B211">
         <v>104203</v>
       </c>
@@ -4598,7 +4777,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B212">
         <v>104204</v>
       </c>
@@ -4612,7 +4791,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B213">
         <v>104205</v>
       </c>
@@ -4626,7 +4805,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B214">
         <v>104206</v>
       </c>
@@ -4640,7 +4819,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B215">
         <v>104301</v>
       </c>
@@ -4654,7 +4833,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B216">
         <v>104302</v>
       </c>
@@ -4668,7 +4847,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B217">
         <v>104303</v>
       </c>
@@ -4682,7 +4861,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B218">
         <v>104304</v>
       </c>
@@ -4696,7 +4875,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B219">
         <v>104305</v>
       </c>
@@ -4710,7 +4889,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B220">
         <v>104306</v>
       </c>
@@ -4724,7 +4903,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B221">
         <v>104307</v>
       </c>
@@ -4738,7 +4917,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B222">
         <v>104308</v>
       </c>
@@ -4752,7 +4931,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B223">
         <v>104501</v>
       </c>
@@ -4766,7 +4945,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B224">
         <v>104502</v>
       </c>
@@ -4780,7 +4959,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B225">
         <v>104503</v>
       </c>
@@ -4794,7 +4973,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B226">
         <v>104504</v>
       </c>
@@ -4808,7 +4987,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B227">
         <v>104505</v>
       </c>
@@ -4822,7 +5001,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B228">
         <v>104506</v>
       </c>
@@ -4836,7 +5015,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B229">
         <v>104507</v>
       </c>
@@ -4850,7 +5029,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B230">
         <v>104508</v>
       </c>
@@ -4864,7 +5043,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B231">
         <v>104509</v>
       </c>
@@ -4878,7 +5057,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B232">
         <v>104510</v>
       </c>
@@ -4892,7 +5071,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B233">
         <v>104601</v>
       </c>
@@ -4906,7 +5085,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B234">
         <v>104602</v>
       </c>
@@ -4920,7 +5099,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B235">
         <v>104603</v>
       </c>
@@ -4934,7 +5113,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B236">
         <v>104701</v>
       </c>
@@ -4948,7 +5127,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B237">
         <v>104702</v>
       </c>
@@ -4962,7 +5141,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B238">
         <v>104703</v>
       </c>
@@ -4976,7 +5155,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B239">
         <v>104704</v>
       </c>
@@ -4990,7 +5169,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B240">
         <v>104705</v>
       </c>
@@ -5004,7 +5183,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B241">
         <v>104706</v>
       </c>
@@ -5018,7 +5197,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B242">
         <v>104707</v>
       </c>
@@ -5032,7 +5211,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B243">
         <v>104801</v>
       </c>
@@ -5046,7 +5225,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B244">
         <v>104802</v>
       </c>
@@ -5060,7 +5239,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B245">
         <v>104803</v>
       </c>
@@ -5074,7 +5253,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B246">
         <v>104804</v>
       </c>
@@ -5088,7 +5267,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B247">
         <v>104805</v>
       </c>
@@ -5102,7 +5281,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B248">
         <v>104901</v>
       </c>
@@ -5116,7 +5295,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B249">
         <v>104902</v>
       </c>
@@ -5130,7 +5309,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B250">
         <v>104903</v>
       </c>
@@ -5144,7 +5323,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B251">
         <v>105101</v>
       </c>
@@ -5158,7 +5337,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B252">
         <v>105102</v>
       </c>
@@ -5172,7 +5351,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B253">
         <v>105103</v>
       </c>
@@ -5186,7 +5365,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B254">
         <v>105104</v>
       </c>
@@ -5200,7 +5379,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B255">
         <v>105201</v>
       </c>
@@ -5214,7 +5393,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B256">
         <v>105202</v>
       </c>
@@ -5228,7 +5407,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B257">
         <v>105203</v>
       </c>
@@ -5242,7 +5421,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B258">
         <v>105204</v>
       </c>
@@ -5256,7 +5435,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B259">
         <v>105205</v>
       </c>
@@ -5270,7 +5449,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B260">
         <v>105206</v>
       </c>
@@ -5284,7 +5463,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B261">
         <v>105207</v>
       </c>
@@ -5298,7 +5477,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B262">
         <v>105208</v>
       </c>
@@ -5312,7 +5491,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B263">
         <v>105209</v>
       </c>
@@ -5326,7 +5505,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B264">
         <v>105301</v>
       </c>
@@ -5340,7 +5519,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B265">
         <v>105302</v>
       </c>
@@ -5354,7 +5533,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B266">
         <v>105303</v>
       </c>
@@ -5368,7 +5547,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B267">
         <v>105304</v>
       </c>
@@ -5382,7 +5561,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B268">
         <v>105305</v>
       </c>
@@ -5396,7 +5575,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B269">
         <v>105401</v>
       </c>
@@ -5410,7 +5589,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B270">
         <v>105402</v>
       </c>
@@ -5424,7 +5603,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B271">
         <v>105501</v>
       </c>
@@ -5438,7 +5617,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B272">
         <v>105502</v>
       </c>
@@ -5452,7 +5631,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B273">
         <v>105503</v>
       </c>
@@ -5466,7 +5645,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B274">
         <v>105504</v>
       </c>
@@ -5480,7 +5659,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B275">
         <v>105505</v>
       </c>
@@ -5493,6 +5672,726 @@
       <c r="E275" s="1" t="s">
         <v>293</v>
       </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>105601</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>105602</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>105603</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>105604</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>105605</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>105606</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>105607</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>105608</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>105609</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>105701</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>105702</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>105801</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>105802</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>105803</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>105804</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>105901</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>105902</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>105903</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>105904</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>105905</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>106001</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>106002</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E297" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>106003</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>106004</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>106005</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B301">
+        <v>106006</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B302">
+        <v>106007</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B303">
+        <v>106008</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B304">
+        <v>106101</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B305">
+        <v>106102</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B306">
+        <v>106201</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B307">
+        <v>106202</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B308">
+        <v>106203</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B309">
+        <v>106204</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B310">
+        <v>106205</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B311">
+        <v>106301</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B312">
+        <v>106302</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B313">
+        <v>106401</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B314">
+        <v>106402</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B315">
+        <v>106403</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B316">
+        <v>106404</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B317">
+        <v>106501</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B318">
+        <v>106502</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B319">
+        <v>106503</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B320">
+        <v>106504</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <v>106505</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="322" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B322">
+        <v>106506</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <v>106601</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B324">
+        <v>106602</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B325">
+        <v>106603</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B326">
+        <v>106604</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E329" s="3"/>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E332" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
